--- a/Crawler/amelia_ai/amelia_topic.xlsx
+++ b/Crawler/amelia_ai/amelia_topic.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #0</t>
   </si>
@@ -46,406 +46,430 @@
     <t xml:space="preserve">   THE TOP 15 WORDS FOR TOPIC #9</t>
   </si>
   <si>
-    <t>0                          today</t>
-  </si>
-  <si>
-    <t>1                           post</t>
-  </si>
-  <si>
-    <t>2                       customer</t>
-  </si>
-  <si>
-    <t>3                         future</t>
-  </si>
-  <si>
-    <t>4                      companies</t>
-  </si>
-  <si>
-    <t>5                          labor</t>
-  </si>
-  <si>
-    <t>6                         amelia</t>
-  </si>
-  <si>
-    <t>7                        digital</t>
-  </si>
-  <si>
-    <t>8                     automation</t>
+    <t>0                     innovation</t>
+  </si>
+  <si>
+    <t>1                         global</t>
+  </si>
+  <si>
+    <t>2                          world</t>
+  </si>
+  <si>
+    <t>3                      solutions</t>
+  </si>
+  <si>
+    <t>4                      cognitive</t>
+  </si>
+  <si>
+    <t>5                        digital</t>
+  </si>
+  <si>
+    <t>6                     enterprise</t>
+  </si>
+  <si>
+    <t>7                     automation</t>
+  </si>
+  <si>
+    <t>8                            end</t>
+  </si>
+  <si>
+    <t>9                        leading</t>
+  </si>
+  <si>
+    <t>10                    operations</t>
+  </si>
+  <si>
+    <t>11                    technology</t>
+  </si>
+  <si>
+    <t>12                           new</t>
+  </si>
+  <si>
+    <t>13                        ipsoft</t>
+  </si>
+  <si>
+    <t>14                        amelia</t>
+  </si>
+  <si>
+    <t>0                   productivity</t>
+  </si>
+  <si>
+    <t>1                         issues</t>
+  </si>
+  <si>
+    <t>2                   technologies</t>
+  </si>
+  <si>
+    <t>3                            new</t>
+  </si>
+  <si>
+    <t>4                         future</t>
+  </si>
+  <si>
+    <t>5                          roles</t>
+  </si>
+  <si>
+    <t>6                          tasks</t>
+  </si>
+  <si>
+    <t>7                         ipsoft</t>
+  </si>
+  <si>
+    <t>8                        workers</t>
+  </si>
+  <si>
+    <t>9                      employees</t>
+  </si>
+  <si>
+    <t>10                      business</t>
+  </si>
+  <si>
+    <t>11                       digital</t>
+  </si>
+  <si>
+    <t>12                          work</t>
+  </si>
+  <si>
+    <t>13                        amelia</t>
+  </si>
+  <si>
+    <t>14                         human</t>
+  </si>
+  <si>
+    <t>0                        leading</t>
+  </si>
+  <si>
+    <t>1                    intelligent</t>
+  </si>
+  <si>
+    <t>2                         ipsoft</t>
+  </si>
+  <si>
+    <t>3                          human</t>
+  </si>
+  <si>
+    <t>4                            end</t>
+  </si>
+  <si>
+    <t>5                         leader</t>
+  </si>
+  <si>
+    <t>6                        everest</t>
+  </si>
+  <si>
+    <t>7                     enterprise</t>
+  </si>
+  <si>
+    <t>8                          group</t>
+  </si>
+  <si>
+    <t>9                         market</t>
+  </si>
+  <si>
+    <t>10                           new</t>
+  </si>
+  <si>
+    <t>11                        report</t>
+  </si>
+  <si>
+    <t>12                conversational</t>
+  </si>
+  <si>
+    <t>13                    automation</t>
+  </si>
+  <si>
+    <t>0                         recent</t>
+  </si>
+  <si>
+    <t>1                           like</t>
+  </si>
+  <si>
+    <t>2                          value</t>
+  </si>
+  <si>
+    <t>3                      employees</t>
+  </si>
+  <si>
+    <t>4                           work</t>
+  </si>
+  <si>
+    <t>5                   intelligence</t>
+  </si>
+  <si>
+    <t>6                    information</t>
+  </si>
+  <si>
+    <t>7                     technology</t>
+  </si>
+  <si>
+    <t>8                       business</t>
+  </si>
+  <si>
+    <t>9                          human</t>
+  </si>
+  <si>
+    <t>10                          read</t>
+  </si>
+  <si>
+    <t>11                       article</t>
+  </si>
+  <si>
+    <t>12                        amelia</t>
+  </si>
+  <si>
+    <t>14                       digital</t>
+  </si>
+  <si>
+    <t>0                           time</t>
+  </si>
+  <si>
+    <t>1                    information</t>
+  </si>
+  <si>
+    <t>2                            new</t>
+  </si>
+  <si>
+    <t>3                         recent</t>
+  </si>
+  <si>
+    <t>4                             op</t>
+  </si>
+  <si>
+    <t>5                             ed</t>
+  </si>
+  <si>
+    <t>6                       services</t>
+  </si>
+  <si>
+    <t>7                       managing</t>
+  </si>
+  <si>
+    <t>8                         ipsoft</t>
+  </si>
+  <si>
+    <t>9                         impact</t>
+  </si>
+  <si>
+    <t>10                     cognitive</t>
+  </si>
+  <si>
+    <t>11                      director</t>
+  </si>
+  <si>
+    <t>12                            uk</t>
+  </si>
+  <si>
+    <t>13                    healthcare</t>
+  </si>
+  <si>
+    <t>14                        health</t>
+  </si>
+  <si>
+    <t>0                      available</t>
+  </si>
+  <si>
+    <t>1                           user</t>
+  </si>
+  <si>
+    <t>2                      processes</t>
+  </si>
+  <si>
+    <t>4                           able</t>
+  </si>
+  <si>
+    <t>5                       chatbots</t>
+  </si>
+  <si>
+    <t>6                         ipsoft</t>
+  </si>
+  <si>
+    <t>7                      questions</t>
+  </si>
+  <si>
+    <t>8                        context</t>
+  </si>
+  <si>
+    <t>9                         author</t>
+  </si>
+  <si>
+    <t>10                     colleague</t>
+  </si>
+  <si>
+    <t>11                    understand</t>
+  </si>
+  <si>
+    <t>12                         learn</t>
+  </si>
+  <si>
+    <t>13                         users</t>
+  </si>
+  <si>
+    <t>14                          post</t>
+  </si>
+  <si>
+    <t>0                      customers</t>
+  </si>
+  <si>
+    <t>1                        company</t>
+  </si>
+  <si>
+    <t>2                    experiences</t>
+  </si>
+  <si>
+    <t>3                     operations</t>
+  </si>
+  <si>
+    <t>4                     enterprise</t>
+  </si>
+  <si>
+    <t>5                       services</t>
+  </si>
+  <si>
+    <t>6                            new</t>
+  </si>
+  <si>
+    <t>7                          human</t>
+  </si>
+  <si>
+    <t>8                        digital</t>
+  </si>
+  <si>
+    <t>9                 conversational</t>
+  </si>
+  <si>
+    <t>10                       leading</t>
+  </si>
+  <si>
+    <t>11                      customer</t>
+  </si>
+  <si>
+    <t>12                           end</t>
+  </si>
+  <si>
+    <t>13                       service</t>
+  </si>
+  <si>
+    <t>0                       language</t>
+  </si>
+  <si>
+    <t>1                        virtual</t>
+  </si>
+  <si>
+    <t>2                        support</t>
+  </si>
+  <si>
+    <t>3                        natural</t>
+  </si>
+  <si>
+    <t>4                        service</t>
+  </si>
+  <si>
+    <t>5                         ipsoft</t>
+  </si>
+  <si>
+    <t>6                      insurance</t>
+  </si>
+  <si>
+    <t>7                      companies</t>
+  </si>
+  <si>
+    <t>8                         agents</t>
+  </si>
+  <si>
+    <t>9                      cognitive</t>
+  </si>
+  <si>
+    <t>10                         human</t>
+  </si>
+  <si>
+    <t>11                    experience</t>
+  </si>
+  <si>
+    <t>12                     customers</t>
+  </si>
+  <si>
+    <t>14                      customer</t>
+  </si>
+  <si>
+    <t>0                             ed</t>
+  </si>
+  <si>
+    <t>1                             op</t>
+  </si>
+  <si>
+    <t>2                        virtual</t>
+  </si>
+  <si>
+    <t>3                    intelligent</t>
+  </si>
+  <si>
+    <t>5                     businesses</t>
+  </si>
+  <si>
+    <t>6                           read</t>
+  </si>
+  <si>
+    <t>8                          voice</t>
   </si>
   <si>
     <t>9                       business</t>
   </si>
   <si>
-    <t>10                          dube</t>
-  </si>
-  <si>
-    <t>11                         human</t>
-  </si>
-  <si>
-    <t>12                        ipsoft</t>
-  </si>
-  <si>
-    <t>13                           ceo</t>
+    <t>10                      customer</t>
+  </si>
+  <si>
+    <t>11                        ipsoft</t>
+  </si>
+  <si>
+    <t>12                           ceo</t>
+  </si>
+  <si>
+    <t>13                          dube</t>
   </si>
   <si>
     <t>14                        chetan</t>
   </si>
   <si>
-    <t>0                        execute</t>
-  </si>
-  <si>
-    <t>1                             hr</t>
-  </si>
-  <si>
-    <t>2                         people</t>
-  </si>
-  <si>
-    <t>3                      employees</t>
-  </si>
-  <si>
-    <t>4                        looking</t>
-  </si>
-  <si>
-    <t>5                       provider</t>
-  </si>
-  <si>
-    <t>6                           work</t>
-  </si>
-  <si>
-    <t>7                        helping</t>
-  </si>
-  <si>
-    <t>8                       possible</t>
-  </si>
-  <si>
-    <t>9                         faster</t>
-  </si>
-  <si>
-    <t>10                       finance</t>
-  </si>
-  <si>
-    <t>11                        senior</t>
-  </si>
-  <si>
-    <t>12                      internal</t>
-  </si>
-  <si>
-    <t>13                      employee</t>
-  </si>
-  <si>
-    <t>14                         group</t>
-  </si>
-  <si>
-    <t>0                     automation</t>
-  </si>
-  <si>
-    <t>1                     technology</t>
-  </si>
-  <si>
-    <t>2                       products</t>
-  </si>
-  <si>
-    <t>3                     enterprise</t>
-  </si>
-  <si>
-    <t>4                         recent</t>
-  </si>
-  <si>
-    <t>5                           read</t>
-  </si>
-  <si>
-    <t>6                          voice</t>
-  </si>
-  <si>
-    <t>7                          focus</t>
-  </si>
-  <si>
-    <t>8                             ed</t>
-  </si>
-  <si>
-    <t>9                             op</t>
-  </si>
-  <si>
-    <t>10                      business</t>
-  </si>
-  <si>
-    <t>11                        ipsoft</t>
-  </si>
-  <si>
-    <t>12                           ceo</t>
-  </si>
-  <si>
-    <t>13                          dube</t>
-  </si>
-  <si>
-    <t>0                      cognitive</t>
-  </si>
-  <si>
-    <t>1                      employees</t>
-  </si>
-  <si>
-    <t>2                          value</t>
-  </si>
-  <si>
-    <t>3                           sure</t>
-  </si>
-  <si>
-    <t>4                        service</t>
-  </si>
-  <si>
-    <t>5                      workforce</t>
-  </si>
-  <si>
-    <t>6                         chetan</t>
-  </si>
-  <si>
-    <t>7                           work</t>
-  </si>
-  <si>
-    <t>8                      companies</t>
-  </si>
-  <si>
-    <t>9                         hybrid</t>
-  </si>
-  <si>
-    <t>10                         human</t>
-  </si>
-  <si>
-    <t>11                          read</t>
-  </si>
-  <si>
-    <t>12                       article</t>
-  </si>
-  <si>
-    <t>13                       digital</t>
+    <t>0                      computing</t>
+  </si>
+  <si>
+    <t>1                           sure</t>
+  </si>
+  <si>
+    <t>2                           read</t>
+  </si>
+  <si>
+    <t>4                        machine</t>
+  </si>
+  <si>
+    <t>5                      cognitive</t>
+  </si>
+  <si>
+    <t>6                       director</t>
+  </si>
+  <si>
+    <t>7                   intelligence</t>
+  </si>
+  <si>
+    <t>8                 conversational</t>
+  </si>
+  <si>
+    <t>9                           says</t>
+  </si>
+  <si>
+    <t>10                          best</t>
+  </si>
+  <si>
+    <t>11                          post</t>
+  </si>
+  <si>
+    <t>12                      learning</t>
+  </si>
+  <si>
+    <t>13                     companies</t>
   </si>
   <si>
     <t>14                        ipsoft</t>
-  </si>
-  <si>
-    <t>0                           help</t>
-  </si>
-  <si>
-    <t>1                    experiences</t>
-  </si>
-  <si>
-    <t>2                      solutions</t>
-  </si>
-  <si>
-    <t>3                        support</t>
-  </si>
-  <si>
-    <t>4                     enterprise</t>
-  </si>
-  <si>
-    <t>5                        company</t>
-  </si>
-  <si>
-    <t>6                            new</t>
-  </si>
-  <si>
-    <t>7                            end</t>
-  </si>
-  <si>
-    <t>8                        digital</t>
-  </si>
-  <si>
-    <t>9                 conversational</t>
-  </si>
-  <si>
-    <t>10                      customer</t>
-  </si>
-  <si>
-    <t>11                       leading</t>
-  </si>
-  <si>
-    <t>12                       service</t>
-  </si>
-  <si>
-    <t>13                      services</t>
-  </si>
-  <si>
-    <t>14                        amelia</t>
-  </si>
-  <si>
-    <t>0                      solutions</t>
-  </si>
-  <si>
-    <t>1                        digital</t>
-  </si>
-  <si>
-    <t>2                         market</t>
-  </si>
-  <si>
-    <t>4                 conversational</t>
-  </si>
-  <si>
-    <t>5                     automation</t>
-  </si>
-  <si>
-    <t>7                     operations</t>
-  </si>
-  <si>
-    <t>8                          human</t>
-  </si>
-  <si>
-    <t>9                     technology</t>
-  </si>
-  <si>
-    <t>10                           end</t>
-  </si>
-  <si>
-    <t>13                      customer</t>
-  </si>
-  <si>
-    <t>1                       director</t>
-  </si>
-  <si>
-    <t>2                           life</t>
-  </si>
-  <si>
-    <t>3                     technology</t>
-  </si>
-  <si>
-    <t>4                             hr</t>
-  </si>
-  <si>
-    <t>5                      cognitive</t>
-  </si>
-  <si>
-    <t>6                        article</t>
-  </si>
-  <si>
-    <t>7                    information</t>
-  </si>
-  <si>
-    <t>8                            new</t>
-  </si>
-  <si>
-    <t>9                         global</t>
-  </si>
-  <si>
-    <t>10                        recent</t>
-  </si>
-  <si>
-    <t>12                        health</t>
-  </si>
-  <si>
-    <t>13                        ipsoft</t>
-  </si>
-  <si>
-    <t>14                    healthcare</t>
-  </si>
-  <si>
-    <t>0                         issues</t>
-  </si>
-  <si>
-    <t>1                            new</t>
-  </si>
-  <si>
-    <t>2                        workers</t>
-  </si>
-  <si>
-    <t>3                      customers</t>
-  </si>
-  <si>
-    <t>4                           work</t>
-  </si>
-  <si>
-    <t>5                           like</t>
-  </si>
-  <si>
-    <t>6                   intelligence</t>
-  </si>
-  <si>
-    <t>7                       customer</t>
-  </si>
-  <si>
-    <t>8                          tasks</t>
-  </si>
-  <si>
-    <t>9                      employees</t>
-  </si>
-  <si>
-    <t>12                       digital</t>
-  </si>
-  <si>
-    <t>13                         human</t>
-  </si>
-  <si>
-    <t>0                       existing</t>
-  </si>
-  <si>
-    <t>1                           need</t>
-  </si>
-  <si>
-    <t>2                     executives</t>
-  </si>
-  <si>
-    <t>3                           said</t>
-  </si>
-  <si>
-    <t>4                         global</t>
-  </si>
-  <si>
-    <t>5                          roles</t>
-  </si>
-  <si>
-    <t>6                  organizations</t>
-  </si>
-  <si>
-    <t>7                         skills</t>
-  </si>
-  <si>
-    <t>8                       pandemic</t>
-  </si>
-  <si>
-    <t>9                   organization</t>
-  </si>
-  <si>
-    <t>11                           new</t>
-  </si>
-  <si>
-    <t>12                     employees</t>
-  </si>
-  <si>
-    <t>13                      research</t>
-  </si>
-  <si>
-    <t>14                  technologies</t>
-  </si>
-  <si>
-    <t>0                         market</t>
-  </si>
-  <si>
-    <t>2                       business</t>
-  </si>
-  <si>
-    <t>3                        digital</t>
-  </si>
-  <si>
-    <t>4                         report</t>
-  </si>
-  <si>
-    <t>5                        leading</t>
-  </si>
-  <si>
-    <t>6                     operations</t>
-  </si>
-  <si>
-    <t>7                          human</t>
-  </si>
-  <si>
-    <t>8                     enterprise</t>
-  </si>
-  <si>
-    <t>9                            new</t>
-  </si>
-  <si>
-    <t>12                conversational</t>
-  </si>
-  <si>
-    <t>13                    automation</t>
   </si>
 </sst>
 </file>
@@ -855,22 +879,22 @@
         <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="J2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -887,22 +911,22 @@
         <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -919,22 +943,22 @@
         <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -951,22 +975,22 @@
         <v>57</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -983,22 +1007,22 @@
         <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1015,22 +1039,22 @@
         <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1047,22 +1071,22 @@
         <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1079,22 +1103,22 @@
         <v>61</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
         <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1111,22 +1135,22 @@
         <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1143,22 +1167,22 @@
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s">
         <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1175,22 +1199,22 @@
         <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1207,22 +1231,22 @@
         <v>65</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J13" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1239,22 +1263,22 @@
         <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H14" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1268,25 +1292,25 @@
         <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G15" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1300,25 +1324,25 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J16" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
